--- a/model/hj-rminf.orm.xlsx
+++ b/model/hj-rminf.orm.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\IdeaProjects\jg-rminf\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\IdeaProjects\bcht-ms-hj-rminf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C53DE94-CF78-476A-BB14-D3C310734138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F813C50-66FB-4AAF-A8BF-21A5E99C19A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="配置" sheetId="2" r:id="rId2"/>
     <sheet name="域定义" sheetId="3" r:id="rId3"/>
     <sheet name="字典定义" sheetId="4" r:id="rId4"/>
-    <sheet name="nop_demo" sheetId="5" r:id="rId5"/>
+    <sheet name="rminf_jg_vehicleinfo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="142">
   <si>
     <t>序号</t>
   </si>
@@ -203,55 +203,13 @@
     <t>M</t>
   </si>
   <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>ADD_TIME</t>
-  </si>
-  <si>
     <t>创建时间</t>
   </si>
   <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
     <t>UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>DELETED</t>
-  </si>
-  <si>
-    <t>逻辑删除</t>
-  </si>
-  <si>
-    <t>关联列表</t>
-  </si>
-  <si>
-    <t>唯一键列表</t>
-  </si>
-  <si>
-    <t>唯一键名</t>
-  </si>
-  <si>
-    <t>数据库约束名</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>别名列表</t>
-  </si>
-  <si>
-    <t>属性路径</t>
   </si>
   <si>
     <t>2.0.0-SNAPSHOT</t>
@@ -293,26 +251,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>createTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>R</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>seq</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -329,31 +271,309 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RminfJgVehicleinfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>集光过车（超员）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>KKBH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡口编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>com.hj.rminf</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>default-query</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>卡口编号</t>
+  </si>
+  <si>
+    <t>方向类型</t>
+  </si>
+  <si>
+    <t>车道号</t>
+  </si>
+  <si>
+    <t>号牌号码</t>
+  </si>
+  <si>
+    <t>号牌种类</t>
+  </si>
+  <si>
+    <t>过车时间</t>
+  </si>
+  <si>
+    <t>车辆速度</t>
+  </si>
+  <si>
+    <t>车辆限速</t>
+  </si>
+  <si>
+    <t>违章行为编码</t>
+  </si>
+  <si>
+    <t>车外廓长</t>
+  </si>
+  <si>
+    <t>号牌颜色</t>
+  </si>
+  <si>
+    <t>车辆类型</t>
+  </si>
+  <si>
+    <t>辅助号牌种类</t>
+  </si>
+  <si>
+    <t>辅助号牌号码</t>
+  </si>
+  <si>
+    <t>辅助号牌颜色</t>
+  </si>
+  <si>
+    <t>车辆品牌</t>
+  </si>
+  <si>
+    <t>车辆外形</t>
+  </si>
+  <si>
+    <t>车身颜色</t>
+  </si>
+  <si>
+    <t>通行图片路径</t>
+  </si>
+  <si>
+    <r>
+      <t>通行图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通行图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通行图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>特征图片</t>
+  </si>
+  <si>
+    <r>
+      <t>Rfid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡号</t>
+    </r>
+  </si>
+  <si>
+    <t>载客人数</t>
+  </si>
+  <si>
+    <t>FXLX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDH</t>
+  </si>
+  <si>
+    <t>HPZL</t>
+  </si>
+  <si>
+    <t>CLSD</t>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Create Time</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Update Time</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>KKBH</t>
+  </si>
+  <si>
+    <t>WFDM</t>
+  </si>
+  <si>
+    <t>HPYS</t>
+  </si>
+  <si>
+    <t>FZHPZL</t>
+  </si>
+  <si>
+    <t>FZHPYS</t>
+  </si>
+  <si>
+    <t>CLWX</t>
+  </si>
+  <si>
+    <t>TPLJ</t>
+  </si>
+  <si>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>TZTP</t>
+  </si>
+  <si>
+    <t>TID</t>
+  </si>
+  <si>
+    <t>HPHM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCSJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLXS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWKC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLLX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FZHPHM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLPP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSYS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZKRS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 填写说明</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意：所有列表结构的第一列，如编号和序号列必须是数字，且不能为空，系统内部通过此列来识别列表结构的起始行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 主键列：对于主键所在的列，标记PK
+2. 是否非空列: 对于必填字段，标记M
+3. 数据类型：必须是StdSqlType中定义的类型，包括BOOLEAN, TINYINT, INTEGER, BIGINT, CHAR, VARCHAR, DATE, DATETIME, TIMESTAMP, DECIMAL, FLOAT, DOUBLE等。
+4. 字段标签: seq表示自动生成的ID，var表示随机值，masked表示打印到log中时需要掩码.not-pub表示不会返回到前台。sort表示列表的缺省排序字段, sort-desc表示缺省按照此字段的降序排序
+显示：X表示在界面上不显示，由程序内部使用， R表示只读字段，C表示不允许修改但允许插入，S表示占据单行显示，L表示在列表上不显示
+5. 对象标签: no-web表示不为该对象生成前台页面</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort-desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -397,8 +617,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,8 +691,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -797,36 +1053,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -836,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,22 +1117,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,19 +1165,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,7 +1582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC37D9C6-D950-46A5-8408-A27C92020A28}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1379,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1390,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1401,7 +1642,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1412,7 +1653,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -1423,7 +1664,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -1434,7 +1675,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -1445,7 +1686,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
@@ -1456,7 +1697,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
@@ -1503,7 +1744,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1542,11 +1783,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -1557,11 +1798,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="20">
         <v>50</v>
@@ -1574,11 +1815,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -1589,11 +1830,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="20">
         <v>50</v>
@@ -1606,23 +1847,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="20" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="19">
+        <v>100</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -1767,55 +2016,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +2085,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="16"/>
@@ -1845,7 +2094,7 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="16"/>
@@ -1854,7 +2103,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="16"/>
@@ -1863,7 +2112,7 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="16"/>
@@ -1872,7 +2121,7 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="16"/>
@@ -1881,7 +2130,7 @@
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="16"/>
@@ -1890,7 +2139,7 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
       <c r="D12" s="16"/>
@@ -1899,13 +2148,13 @@
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1926,166 +2175,159 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A748C1E0-21C5-4A63-9842-81F2C0B1E6DB}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="4.75" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="6.25" customWidth="1"/>
-    <col min="10" max="10" width="4.75" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="6.125" customWidth="1"/>
-    <col min="13" max="13" width="8.25" customWidth="1"/>
-    <col min="14" max="14" width="12.625" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="16" max="17" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="15" max="16" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="10"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="10"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="10"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="9"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -2111,34 +2353,31 @@
         <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -2146,368 +2385,982 @@
         <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="18" t="s">
         <v>55</v>
       </c>
+      <c r="K8" s="24">
+        <v>50</v>
+      </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O8" s="5"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>94</v>
+      <c r="C9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="J9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="5">
         <v>32</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O9" s="5"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="5">
+        <v>32</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="5">
+        <v>32</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>87</v>
-      </c>
+      <c r="C12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="28"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="5">
+        <v>32</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="5">
+        <v>32</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5" t="s">
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="5">
+        <v>32</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="5">
+        <v>32</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="5">
+        <v>32</v>
+      </c>
+      <c r="L16" s="23"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>10</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="5">
+        <v>32</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>11</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="5">
+        <v>32</v>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="20"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>12</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="5">
+        <v>32</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="5">
+        <v>32</v>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="20"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="5">
+        <v>32</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="5">
+        <v>32</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>16</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="5">
+        <v>32</v>
+      </c>
+      <c r="L23" s="23"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="20"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>17</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="5">
+        <v>32</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="20"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>18</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="5">
+        <v>32</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="20"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>19</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="5">
+        <v>32</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="20"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>20</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="5">
+        <v>32</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="20"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>21</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="5">
+        <v>255</v>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="20"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>22</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="5">
+        <v>255</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="20"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>23</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="5">
+        <v>255</v>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="20"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>24</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="5">
+        <v>32</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="20"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>25</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="5">
+        <v>32</v>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="20"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>26</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="5">
+        <v>32</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="20"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>27</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34" s="5">
+        <v>32</v>
+      </c>
+      <c r="L34" s="23"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22">
+        <v>0</v>
+      </c>
+      <c r="O34" s="23"/>
+      <c r="P34" s="20"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>28</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="24"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="20"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>29</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="E36" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="I36" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="24"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="20"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="20"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B43" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="27"/>
+    </row>
+    <row r="44" spans="1:16" ht="177" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="A19:Q19"/>
+  <mergeCells count="15">
+    <mergeCell ref="B44:M44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:N4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A39:P39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>